--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ly9-Ly9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ly9-Ly9.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04847799999999999</v>
+        <v>0.1771736666666667</v>
       </c>
       <c r="H2">
-        <v>0.145434</v>
+        <v>0.531521</v>
       </c>
       <c r="I2">
-        <v>0.0006396702768330429</v>
+        <v>0.001594420883686164</v>
       </c>
       <c r="J2">
-        <v>0.0006400561554500705</v>
+        <v>0.001599392044399656</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04847799999999999</v>
+        <v>0.1771736666666667</v>
       </c>
       <c r="N2">
-        <v>0.145434</v>
+        <v>0.531521</v>
       </c>
       <c r="O2">
-        <v>0.0006396702768330429</v>
+        <v>0.001594420883686164</v>
       </c>
       <c r="P2">
-        <v>0.0006400561554500705</v>
+        <v>0.001599392044399656</v>
       </c>
       <c r="Q2">
-        <v>0.002350116484</v>
+        <v>0.03139050816011112</v>
       </c>
       <c r="R2">
-        <v>0.021151048356</v>
+        <v>0.282514573441</v>
       </c>
       <c r="S2">
-        <v>4.091780630636617E-07</v>
+        <v>2.542177954334568E-06</v>
       </c>
       <c r="T2">
-        <v>4.096718821295248E-07</v>
+        <v>2.558054911688911E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.04847799999999999</v>
+        <v>0.1771736666666667</v>
       </c>
       <c r="H3">
-        <v>0.145434</v>
+        <v>0.531521</v>
       </c>
       <c r="I3">
-        <v>0.0006396702768330429</v>
+        <v>0.001594420883686164</v>
       </c>
       <c r="J3">
-        <v>0.0006400561554500705</v>
+        <v>0.001599392044399656</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05375533333333334</v>
+        <v>0.05375533333333333</v>
       </c>
       <c r="N3">
         <v>0.161266</v>
       </c>
       <c r="O3">
-        <v>0.0007093050240229762</v>
+        <v>0.0004837548812342935</v>
       </c>
       <c r="P3">
-        <v>0.0007097329095315477</v>
+        <v>0.0004852631550440244</v>
       </c>
       <c r="Q3">
-        <v>0.002605951049333333</v>
+        <v>0.009524029509555556</v>
       </c>
       <c r="R3">
-        <v>0.023453559444</v>
+        <v>0.085716265586</v>
       </c>
       <c r="S3">
-        <v>4.537213410758454E-07</v>
+        <v>7.713088852250775E-07</v>
       </c>
       <c r="T3">
-        <v>4.542689174711551E-07</v>
+        <v>7.761260296176893E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04847799999999999</v>
+        <v>0.1771736666666667</v>
       </c>
       <c r="H4">
-        <v>0.145434</v>
+        <v>0.531521</v>
       </c>
       <c r="I4">
-        <v>0.0006396702768330429</v>
+        <v>0.001594420883686164</v>
       </c>
       <c r="J4">
-        <v>0.0006400561554500705</v>
+        <v>0.001599392044399656</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.61316033333333</v>
+        <v>55.14858233333334</v>
       </c>
       <c r="N4">
-        <v>124.839481</v>
+        <v>165.445747</v>
       </c>
       <c r="O4">
-        <v>0.5490882831453677</v>
+        <v>0.4962930046674685</v>
       </c>
       <c r="P4">
-        <v>0.5494195185255314</v>
+        <v>0.4978403704304406</v>
       </c>
       <c r="Q4">
-        <v>2.017322786639333</v>
+        <v>9.770876543465222</v>
       </c>
       <c r="R4">
-        <v>18.155905079754</v>
+        <v>87.93788889118701</v>
       </c>
       <c r="S4">
-        <v>0.0003512354540853776</v>
+        <v>0.0007912999310691666</v>
       </c>
       <c r="T4">
-        <v>0.0003516593447566804</v>
+        <v>0.0007962419278474244</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04847799999999999</v>
+        <v>0.1771736666666667</v>
       </c>
       <c r="H5">
-        <v>0.145434</v>
+        <v>0.531521</v>
       </c>
       <c r="I5">
-        <v>0.0006396702768330429</v>
+        <v>0.001594420883686164</v>
       </c>
       <c r="J5">
-        <v>0.0006400561554500705</v>
+        <v>0.001599392044399656</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.13707</v>
+        <v>1.0361445</v>
       </c>
       <c r="N5">
-        <v>0.27414</v>
+        <v>2.072289</v>
       </c>
       <c r="O5">
-        <v>0.001808647321372689</v>
+        <v>0.009324469377408749</v>
       </c>
       <c r="P5">
-        <v>0.001206492253909556</v>
+        <v>0.006235694432199138</v>
       </c>
       <c r="Q5">
-        <v>0.006644879459999999</v>
+        <v>0.1835775202615</v>
       </c>
       <c r="R5">
-        <v>0.03986927676</v>
+        <v>1.101465121569</v>
       </c>
       <c r="S5">
-        <v>1.156937932755809E-06</v>
+        <v>1.486712870463263E-05</v>
       </c>
       <c r="T5">
-        <v>7.722227936176406E-07</v>
+        <v>9.973320066166531E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.04847799999999999</v>
+        <v>0.1771736666666667</v>
       </c>
       <c r="H6">
-        <v>0.145434</v>
+        <v>0.531521</v>
       </c>
       <c r="I6">
-        <v>0.0006396702768330429</v>
+        <v>0.001594420883686164</v>
       </c>
       <c r="J6">
-        <v>0.0006400561554500705</v>
+        <v>0.001599392044399656</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.93345566666667</v>
+        <v>54.70535899999999</v>
       </c>
       <c r="N6">
-        <v>101.800367</v>
+        <v>164.116077</v>
       </c>
       <c r="O6">
-        <v>0.4477540942324035</v>
+        <v>0.4923043501902022</v>
       </c>
       <c r="P6">
-        <v>0.4480242001555774</v>
+        <v>0.4938392799379165</v>
       </c>
       <c r="Q6">
-        <v>1.645026063808666</v>
+        <v>9.692349040346333</v>
       </c>
       <c r="R6">
-        <v>14.805234574278</v>
+        <v>87.231141363117</v>
       </c>
       <c r="S6">
-        <v>0.0002864149854107699</v>
+        <v>0.000784940337072805</v>
       </c>
       <c r="T6">
-        <v>0.0002867606471001717</v>
+        <v>0.0007898426155447582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05375533333333334</v>
+        <v>0.05375533333333333</v>
       </c>
       <c r="H7">
         <v>0.161266</v>
       </c>
       <c r="I7">
-        <v>0.0007093050240229762</v>
+        <v>0.0004837548812342935</v>
       </c>
       <c r="J7">
-        <v>0.0007097329095315477</v>
+        <v>0.0004852631550440244</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.04847799999999999</v>
+        <v>0.1771736666666667</v>
       </c>
       <c r="N7">
-        <v>0.145434</v>
+        <v>0.531521</v>
       </c>
       <c r="O7">
-        <v>0.0006396702768330429</v>
+        <v>0.001594420883686164</v>
       </c>
       <c r="P7">
-        <v>0.0006400561554500705</v>
+        <v>0.001599392044399656</v>
       </c>
       <c r="Q7">
-        <v>0.002605951049333333</v>
+        <v>0.009524029509555556</v>
       </c>
       <c r="R7">
-        <v>0.023453559444</v>
+        <v>0.085716265586</v>
       </c>
       <c r="S7">
-        <v>4.537213410758454E-07</v>
+        <v>7.713088852250775E-07</v>
       </c>
       <c r="T7">
-        <v>4.542689174711551E-07</v>
+        <v>7.761260296176893E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.05375533333333334</v>
+        <v>0.05375533333333333</v>
       </c>
       <c r="H8">
         <v>0.161266</v>
       </c>
       <c r="I8">
-        <v>0.0007093050240229762</v>
+        <v>0.0004837548812342935</v>
       </c>
       <c r="J8">
-        <v>0.0007097329095315477</v>
+        <v>0.0004852631550440244</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05375533333333334</v>
+        <v>0.05375533333333333</v>
       </c>
       <c r="N8">
         <v>0.161266</v>
       </c>
       <c r="O8">
-        <v>0.0007093050240229762</v>
+        <v>0.0004837548812342935</v>
       </c>
       <c r="P8">
-        <v>0.0007097329095315477</v>
+        <v>0.0004852631550440244</v>
       </c>
       <c r="Q8">
-        <v>0.002889635861777779</v>
+        <v>0.002889635861777777</v>
       </c>
       <c r="R8">
-        <v>0.02600672275600001</v>
+        <v>0.026006722756</v>
       </c>
       <c r="S8">
-        <v>5.031136171042349E-07</v>
+        <v>2.340187851180054E-07</v>
       </c>
       <c r="T8">
-        <v>5.03720802872116E-07</v>
+        <v>2.354803296432808E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.05375533333333334</v>
+        <v>0.05375533333333333</v>
       </c>
       <c r="H9">
         <v>0.161266</v>
       </c>
       <c r="I9">
-        <v>0.0007093050240229762</v>
+        <v>0.0004837548812342935</v>
       </c>
       <c r="J9">
-        <v>0.0007097329095315477</v>
+        <v>0.0004852631550440244</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.61316033333333</v>
+        <v>55.14858233333334</v>
       </c>
       <c r="N9">
-        <v>124.839481</v>
+        <v>165.445747</v>
       </c>
       <c r="O9">
-        <v>0.5490882831453677</v>
+        <v>0.4962930046674685</v>
       </c>
       <c r="P9">
-        <v>0.5494195185255314</v>
+        <v>0.4978403704304406</v>
       </c>
       <c r="Q9">
-        <v>2.236929304771778</v>
+        <v>2.964530426189111</v>
       </c>
       <c r="R9">
-        <v>20.132363742946</v>
+        <v>26.680773835702</v>
       </c>
       <c r="S9">
-        <v>0.0003894710778671598</v>
+        <v>0.0002400841635303219</v>
       </c>
       <c r="T9">
-        <v>0.0003899411134365475</v>
+        <v>0.0002415835888633614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.05375533333333334</v>
+        <v>0.05375533333333333</v>
       </c>
       <c r="H10">
         <v>0.161266</v>
       </c>
       <c r="I10">
-        <v>0.0007093050240229762</v>
+        <v>0.0004837548812342935</v>
       </c>
       <c r="J10">
-        <v>0.0007097329095315477</v>
+        <v>0.0004852631550440244</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.13707</v>
+        <v>1.0361445</v>
       </c>
       <c r="N10">
-        <v>0.27414</v>
+        <v>2.072289</v>
       </c>
       <c r="O10">
-        <v>0.001808647321372689</v>
+        <v>0.009324469377408749</v>
       </c>
       <c r="P10">
-        <v>0.001206492253909556</v>
+        <v>0.006235694432199138</v>
       </c>
       <c r="Q10">
-        <v>0.007368243540000001</v>
+        <v>0.055698292979</v>
       </c>
       <c r="R10">
-        <v>0.04420946124</v>
+        <v>0.334189757874</v>
       </c>
       <c r="S10">
-        <v>1.282882631735347E-06</v>
+        <v>4.510757576241175E-06</v>
       </c>
       <c r="T10">
-        <v>8.562872576945038E-07</v>
+        <v>3.02595275405941E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.05375533333333334</v>
+        <v>0.05375533333333333</v>
       </c>
       <c r="H11">
         <v>0.161266</v>
       </c>
       <c r="I11">
-        <v>0.0007093050240229762</v>
+        <v>0.0004837548812342935</v>
       </c>
       <c r="J11">
-        <v>0.0007097329095315477</v>
+        <v>0.0004852631550440244</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>33.93345566666667</v>
+        <v>54.70535899999999</v>
       </c>
       <c r="N11">
-        <v>101.800367</v>
+        <v>164.116077</v>
       </c>
       <c r="O11">
-        <v>0.4477540942324035</v>
+        <v>0.4923043501902022</v>
       </c>
       <c r="P11">
-        <v>0.4480242001555774</v>
+        <v>0.4938392799379165</v>
       </c>
       <c r="Q11">
-        <v>1.824104220513556</v>
+        <v>2.940704808164666</v>
       </c>
       <c r="R11">
-        <v>16.416937984622</v>
+        <v>26.466343273482</v>
       </c>
       <c r="S11">
-        <v>0.0003175942285659009</v>
+        <v>0.0002381546324573873</v>
       </c>
       <c r="T11">
-        <v>0.0003179775191169624</v>
+        <v>0.0002396420070673425</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.61316033333333</v>
+        <v>55.14858233333334</v>
       </c>
       <c r="H12">
-        <v>124.839481</v>
+        <v>165.445747</v>
       </c>
       <c r="I12">
-        <v>0.5490882831453677</v>
+        <v>0.4962930046674685</v>
       </c>
       <c r="J12">
-        <v>0.5494195185255314</v>
+        <v>0.4978403704304406</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.04847799999999999</v>
+        <v>0.1771736666666667</v>
       </c>
       <c r="N12">
-        <v>0.145434</v>
+        <v>0.531521</v>
       </c>
       <c r="O12">
-        <v>0.0006396702768330429</v>
+        <v>0.001594420883686164</v>
       </c>
       <c r="P12">
-        <v>0.0006400561554500705</v>
+        <v>0.001599392044399656</v>
       </c>
       <c r="Q12">
-        <v>2.017322786639333</v>
+        <v>9.770876543465222</v>
       </c>
       <c r="R12">
-        <v>18.155905079754</v>
+        <v>87.93788889118701</v>
       </c>
       <c r="S12">
-        <v>0.0003512354540853776</v>
+        <v>0.0007912999310691666</v>
       </c>
       <c r="T12">
-        <v>0.0003516593447566804</v>
+        <v>0.0007962419278474244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.61316033333333</v>
+        <v>55.14858233333334</v>
       </c>
       <c r="H13">
-        <v>124.839481</v>
+        <v>165.445747</v>
       </c>
       <c r="I13">
-        <v>0.5490882831453677</v>
+        <v>0.4962930046674685</v>
       </c>
       <c r="J13">
-        <v>0.5494195185255314</v>
+        <v>0.4978403704304406</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05375533333333334</v>
+        <v>0.05375533333333333</v>
       </c>
       <c r="N13">
         <v>0.161266</v>
       </c>
       <c r="O13">
-        <v>0.0007093050240229762</v>
+        <v>0.0004837548812342935</v>
       </c>
       <c r="P13">
-        <v>0.0007097329095315477</v>
+        <v>0.0004852631550440244</v>
       </c>
       <c r="Q13">
-        <v>2.236929304771778</v>
+        <v>2.964530426189111</v>
       </c>
       <c r="R13">
-        <v>20.132363742946</v>
+        <v>26.680773835702</v>
       </c>
       <c r="S13">
-        <v>0.0003894710778671598</v>
+        <v>0.0002400841635303219</v>
       </c>
       <c r="T13">
-        <v>0.0003899411134365475</v>
+        <v>0.0002415835888633614</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.61316033333333</v>
+        <v>55.14858233333334</v>
       </c>
       <c r="H14">
-        <v>124.839481</v>
+        <v>165.445747</v>
       </c>
       <c r="I14">
-        <v>0.5490882831453677</v>
+        <v>0.4962930046674685</v>
       </c>
       <c r="J14">
-        <v>0.5494195185255314</v>
+        <v>0.4978403704304406</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>41.61316033333333</v>
+        <v>55.14858233333334</v>
       </c>
       <c r="N14">
-        <v>124.839481</v>
+        <v>165.445747</v>
       </c>
       <c r="O14">
-        <v>0.5490882831453677</v>
+        <v>0.4962930046674685</v>
       </c>
       <c r="P14">
-        <v>0.5494195185255314</v>
+        <v>0.4978403704304406</v>
       </c>
       <c r="Q14">
-        <v>1731.655112927707</v>
+        <v>3041.366133376446</v>
       </c>
       <c r="R14">
-        <v>15584.89601634936</v>
+        <v>27372.29520038801</v>
       </c>
       <c r="S14">
-        <v>0.3014979426875275</v>
+        <v>0.2463067464818639</v>
       </c>
       <c r="T14">
-        <v>0.3018618073368267</v>
+        <v>0.2478450344303183</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.61316033333333</v>
+        <v>55.14858233333334</v>
       </c>
       <c r="H15">
-        <v>124.839481</v>
+        <v>165.445747</v>
       </c>
       <c r="I15">
-        <v>0.5490882831453677</v>
+        <v>0.4962930046674685</v>
       </c>
       <c r="J15">
-        <v>0.5494195185255314</v>
+        <v>0.4978403704304406</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1361,28 +1361,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.13707</v>
+        <v>1.0361445</v>
       </c>
       <c r="N15">
-        <v>0.27414</v>
+        <v>2.072289</v>
       </c>
       <c r="O15">
-        <v>0.001808647321372689</v>
+        <v>0.009324469377408749</v>
       </c>
       <c r="P15">
-        <v>0.001206492253909556</v>
+        <v>0.006235694432199138</v>
       </c>
       <c r="Q15">
-        <v>5.70391588689</v>
+        <v>57.14190026748051</v>
       </c>
       <c r="R15">
-        <v>34.22349532134</v>
+        <v>342.8514016048831</v>
       </c>
       <c r="S15">
-        <v>0.0009931070525079978</v>
+        <v>0.004627668924243987</v>
       </c>
       <c r="T15">
-        <v>0.0006628703932477713</v>
+        <v>0.003104380426017055</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.61316033333333</v>
+        <v>55.14858233333334</v>
       </c>
       <c r="H16">
-        <v>124.839481</v>
+        <v>165.445747</v>
       </c>
       <c r="I16">
-        <v>0.5490882831453677</v>
+        <v>0.4962930046674685</v>
       </c>
       <c r="J16">
-        <v>0.5494195185255314</v>
+        <v>0.4978403704304406</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.93345566666667</v>
+        <v>54.70535899999999</v>
       </c>
       <c r="N16">
-        <v>101.800367</v>
+        <v>164.116077</v>
       </c>
       <c r="O16">
-        <v>0.4477540942324035</v>
+        <v>0.4923043501902022</v>
       </c>
       <c r="P16">
-        <v>0.4480242001555774</v>
+        <v>0.4938392799379165</v>
       </c>
       <c r="Q16">
-        <v>1412.078331321059</v>
+        <v>3016.922994886057</v>
       </c>
       <c r="R16">
-        <v>12708.70498188952</v>
+        <v>27152.30695397452</v>
       </c>
       <c r="S16">
-        <v>0.2458565268733797</v>
+        <v>0.2443272051667611</v>
       </c>
       <c r="T16">
-        <v>0.2461532403372636</v>
+        <v>0.2458531300573944</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.13707</v>
+        <v>1.0361445</v>
       </c>
       <c r="H17">
-        <v>0.27414</v>
+        <v>2.072289</v>
       </c>
       <c r="I17">
-        <v>0.001808647321372689</v>
+        <v>0.009324469377408749</v>
       </c>
       <c r="J17">
-        <v>0.001206492253909556</v>
+        <v>0.006235694432199138</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.04847799999999999</v>
+        <v>0.1771736666666667</v>
       </c>
       <c r="N17">
-        <v>0.145434</v>
+        <v>0.531521</v>
       </c>
       <c r="O17">
-        <v>0.0006396702768330429</v>
+        <v>0.001594420883686164</v>
       </c>
       <c r="P17">
-        <v>0.0006400561554500705</v>
+        <v>0.001599392044399656</v>
       </c>
       <c r="Q17">
-        <v>0.006644879459999999</v>
+        <v>0.1835775202615</v>
       </c>
       <c r="R17">
-        <v>0.03986927676</v>
+        <v>1.101465121569</v>
       </c>
       <c r="S17">
-        <v>1.156937932755809E-06</v>
+        <v>1.486712870463263E-05</v>
       </c>
       <c r="T17">
-        <v>7.722227936176406E-07</v>
+        <v>9.973320066166531E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,16 +1529,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.13707</v>
+        <v>1.0361445</v>
       </c>
       <c r="H18">
-        <v>0.27414</v>
+        <v>2.072289</v>
       </c>
       <c r="I18">
-        <v>0.001808647321372689</v>
+        <v>0.009324469377408749</v>
       </c>
       <c r="J18">
-        <v>0.001206492253909556</v>
+        <v>0.006235694432199138</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1547,28 +1547,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.05375533333333334</v>
+        <v>0.05375533333333333</v>
       </c>
       <c r="N18">
         <v>0.161266</v>
       </c>
       <c r="O18">
-        <v>0.0007093050240229762</v>
+        <v>0.0004837548812342935</v>
       </c>
       <c r="P18">
-        <v>0.0007097329095315477</v>
+        <v>0.0004852631550440244</v>
       </c>
       <c r="Q18">
-        <v>0.007368243540000001</v>
+        <v>0.055698292979</v>
       </c>
       <c r="R18">
-        <v>0.04420946124</v>
+        <v>0.334189757874</v>
       </c>
       <c r="S18">
-        <v>1.282882631735347E-06</v>
+        <v>4.510757576241175E-06</v>
       </c>
       <c r="T18">
-        <v>8.562872576945038E-07</v>
+        <v>3.02595275405941E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,16 +1591,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.13707</v>
+        <v>1.0361445</v>
       </c>
       <c r="H19">
-        <v>0.27414</v>
+        <v>2.072289</v>
       </c>
       <c r="I19">
-        <v>0.001808647321372689</v>
+        <v>0.009324469377408749</v>
       </c>
       <c r="J19">
-        <v>0.001206492253909556</v>
+        <v>0.006235694432199138</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1609,28 +1609,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.61316033333333</v>
+        <v>55.14858233333334</v>
       </c>
       <c r="N19">
-        <v>124.839481</v>
+        <v>165.445747</v>
       </c>
       <c r="O19">
-        <v>0.5490882831453677</v>
+        <v>0.4962930046674685</v>
       </c>
       <c r="P19">
-        <v>0.5494195185255314</v>
+        <v>0.4978403704304406</v>
       </c>
       <c r="Q19">
-        <v>5.70391588689</v>
+        <v>57.14190026748051</v>
       </c>
       <c r="R19">
-        <v>34.22349532134</v>
+        <v>342.8514016048831</v>
       </c>
       <c r="S19">
-        <v>0.0009931070525079978</v>
+        <v>0.004627668924243987</v>
       </c>
       <c r="T19">
-        <v>0.0006628703932477713</v>
+        <v>0.003104380426017055</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,16 +1653,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.13707</v>
+        <v>1.0361445</v>
       </c>
       <c r="H20">
-        <v>0.27414</v>
+        <v>2.072289</v>
       </c>
       <c r="I20">
-        <v>0.001808647321372689</v>
+        <v>0.009324469377408749</v>
       </c>
       <c r="J20">
-        <v>0.001206492253909556</v>
+        <v>0.006235694432199138</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1671,28 +1671,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.13707</v>
+        <v>1.0361445</v>
       </c>
       <c r="N20">
-        <v>0.27414</v>
+        <v>2.072289</v>
       </c>
       <c r="O20">
-        <v>0.001808647321372689</v>
+        <v>0.009324469377408749</v>
       </c>
       <c r="P20">
-        <v>0.001206492253909556</v>
+        <v>0.006235694432199138</v>
       </c>
       <c r="Q20">
-        <v>0.0187881849</v>
+        <v>1.07359542488025</v>
       </c>
       <c r="R20">
-        <v>0.07515273959999999</v>
+        <v>4.294381699521</v>
       </c>
       <c r="S20">
-        <v>3.271205133108602E-06</v>
+        <v>8.69457291702335E-05</v>
       </c>
       <c r="T20">
-        <v>1.45562355874376E-06</v>
+        <v>3.888388505175934E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,16 +1715,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.13707</v>
+        <v>1.0361445</v>
       </c>
       <c r="H21">
-        <v>0.27414</v>
+        <v>2.072289</v>
       </c>
       <c r="I21">
-        <v>0.001808647321372689</v>
+        <v>0.009324469377408749</v>
       </c>
       <c r="J21">
-        <v>0.001206492253909556</v>
+        <v>0.006235694432199138</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1733,28 +1733,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>33.93345566666667</v>
+        <v>54.70535899999999</v>
       </c>
       <c r="N21">
-        <v>101.800367</v>
+        <v>164.116077</v>
       </c>
       <c r="O21">
-        <v>0.4477540942324035</v>
+        <v>0.4923043501902022</v>
       </c>
       <c r="P21">
-        <v>0.4480242001555774</v>
+        <v>0.4938392799379165</v>
       </c>
       <c r="Q21">
-        <v>4.65125876823</v>
+        <v>56.68265684837549</v>
       </c>
       <c r="R21">
-        <v>27.90755260938</v>
+        <v>340.095941090253</v>
       </c>
       <c r="S21">
-        <v>0.000809829243167091</v>
+        <v>0.004590476837713653</v>
       </c>
       <c r="T21">
-        <v>0.0005405377270517285</v>
+        <v>0.003079430848310098</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,16 +1777,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.93345566666667</v>
+        <v>54.70535899999999</v>
       </c>
       <c r="H22">
-        <v>101.800367</v>
+        <v>164.116077</v>
       </c>
       <c r="I22">
-        <v>0.4477540942324035</v>
+        <v>0.4923043501902022</v>
       </c>
       <c r="J22">
-        <v>0.4480242001555774</v>
+        <v>0.4938392799379165</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1795,28 +1795,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.04847799999999999</v>
+        <v>0.1771736666666667</v>
       </c>
       <c r="N22">
-        <v>0.145434</v>
+        <v>0.531521</v>
       </c>
       <c r="O22">
-        <v>0.0006396702768330429</v>
+        <v>0.001594420883686164</v>
       </c>
       <c r="P22">
-        <v>0.0006400561554500705</v>
+        <v>0.001599392044399656</v>
       </c>
       <c r="Q22">
-        <v>1.645026063808666</v>
+        <v>9.692349040346333</v>
       </c>
       <c r="R22">
-        <v>14.805234574278</v>
+        <v>87.231141363117</v>
       </c>
       <c r="S22">
-        <v>0.0002864149854107699</v>
+        <v>0.000784940337072805</v>
       </c>
       <c r="T22">
-        <v>0.0002867606471001717</v>
+        <v>0.0007898426155447582</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,16 +1839,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.93345566666667</v>
+        <v>54.70535899999999</v>
       </c>
       <c r="H23">
-        <v>101.800367</v>
+        <v>164.116077</v>
       </c>
       <c r="I23">
-        <v>0.4477540942324035</v>
+        <v>0.4923043501902022</v>
       </c>
       <c r="J23">
-        <v>0.4480242001555774</v>
+        <v>0.4938392799379165</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1857,28 +1857,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.05375533333333334</v>
+        <v>0.05375533333333333</v>
       </c>
       <c r="N23">
         <v>0.161266</v>
       </c>
       <c r="O23">
-        <v>0.0007093050240229762</v>
+        <v>0.0004837548812342935</v>
       </c>
       <c r="P23">
-        <v>0.0007097329095315477</v>
+        <v>0.0004852631550440244</v>
       </c>
       <c r="Q23">
-        <v>1.824104220513556</v>
+        <v>2.940704808164666</v>
       </c>
       <c r="R23">
-        <v>16.416937984622</v>
+        <v>26.466343273482</v>
       </c>
       <c r="S23">
-        <v>0.0003175942285659009</v>
+        <v>0.0002381546324573873</v>
       </c>
       <c r="T23">
-        <v>0.0003179775191169624</v>
+        <v>0.0002396420070673425</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,16 +1901,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.93345566666667</v>
+        <v>54.70535899999999</v>
       </c>
       <c r="H24">
-        <v>101.800367</v>
+        <v>164.116077</v>
       </c>
       <c r="I24">
-        <v>0.4477540942324035</v>
+        <v>0.4923043501902022</v>
       </c>
       <c r="J24">
-        <v>0.4480242001555774</v>
+        <v>0.4938392799379165</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1919,28 +1919,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>41.61316033333333</v>
+        <v>55.14858233333334</v>
       </c>
       <c r="N24">
-        <v>124.839481</v>
+        <v>165.445747</v>
       </c>
       <c r="O24">
-        <v>0.5490882831453677</v>
+        <v>0.4962930046674685</v>
       </c>
       <c r="P24">
-        <v>0.5494195185255314</v>
+        <v>0.4978403704304406</v>
       </c>
       <c r="Q24">
-        <v>1412.078331321059</v>
+        <v>3016.922994886057</v>
       </c>
       <c r="R24">
-        <v>12708.70498188952</v>
+        <v>27152.30695397452</v>
       </c>
       <c r="S24">
-        <v>0.2458565268733797</v>
+        <v>0.2443272051667611</v>
       </c>
       <c r="T24">
-        <v>0.2461532403372636</v>
+        <v>0.2458531300573944</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,16 +1963,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.93345566666667</v>
+        <v>54.70535899999999</v>
       </c>
       <c r="H25">
-        <v>101.800367</v>
+        <v>164.116077</v>
       </c>
       <c r="I25">
-        <v>0.4477540942324035</v>
+        <v>0.4923043501902022</v>
       </c>
       <c r="J25">
-        <v>0.4480242001555774</v>
+        <v>0.4938392799379165</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1981,28 +1981,28 @@
         <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.13707</v>
+        <v>1.0361445</v>
       </c>
       <c r="N25">
-        <v>0.27414</v>
+        <v>2.072289</v>
       </c>
       <c r="O25">
-        <v>0.001808647321372689</v>
+        <v>0.009324469377408749</v>
       </c>
       <c r="P25">
-        <v>0.001206492253909556</v>
+        <v>0.006235694432199138</v>
       </c>
       <c r="Q25">
-        <v>4.65125876823</v>
+        <v>56.68265684837549</v>
       </c>
       <c r="R25">
-        <v>27.90755260938</v>
+        <v>340.095941090253</v>
       </c>
       <c r="S25">
-        <v>0.000809829243167091</v>
+        <v>0.004590476837713653</v>
       </c>
       <c r="T25">
-        <v>0.0005405377270517285</v>
+        <v>0.003079430848310098</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,16 +2025,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.93345566666667</v>
+        <v>54.70535899999999</v>
       </c>
       <c r="H26">
-        <v>101.800367</v>
+        <v>164.116077</v>
       </c>
       <c r="I26">
-        <v>0.4477540942324035</v>
+        <v>0.4923043501902022</v>
       </c>
       <c r="J26">
-        <v>0.4480242001555774</v>
+        <v>0.4938392799379165</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2043,28 +2043,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>33.93345566666667</v>
+        <v>54.70535899999999</v>
       </c>
       <c r="N26">
-        <v>101.800367</v>
+        <v>164.116077</v>
       </c>
       <c r="O26">
-        <v>0.4477540942324035</v>
+        <v>0.4923043501902022</v>
       </c>
       <c r="P26">
-        <v>0.4480242001555774</v>
+        <v>0.4938392799379165</v>
       </c>
       <c r="Q26">
-        <v>1151.479413481632</v>
+        <v>2992.67630331888</v>
       </c>
       <c r="R26">
-        <v>10363.31472133469</v>
+        <v>26934.08672986993</v>
       </c>
       <c r="S26">
-        <v>0.2004837289018801</v>
+        <v>0.2423635732161973</v>
       </c>
       <c r="T26">
-        <v>0.2007256839250449</v>
+        <v>0.2438772344095999</v>
       </c>
     </row>
   </sheetData>
